--- a/data/traditionalmarket.xlsx
+++ b/data/traditionalmarket.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\LS빅데이터스쿨\iljoon\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\LS 빅데이터 스쿨\TEAM_What-is-the-dinner-menu_new\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13682,9 +13682,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
